--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.26655561871</v>
+        <v>1058.45234</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.24731657534</v>
+        <v>13353.0396394537</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>19280.01512841276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>19769.780047248</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>6189.307227245999</v>
       </c>
       <c r="N2" t="n">
-        <v>5912.552854505395</v>
+        <v>5914.908238816838</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.879697557355</v>
+        <v>3628.023524551822</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.617767628883</v>
+        <v>5509.197086876458</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41672.65814761933</v>
+        <v>42163.71916364003</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366783</v>
+        <v>32768.08478625982</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333453</v>
+        <v>97840.49618645621</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>25068.1401224518</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.89280438323</v>
+        <v>18733.51942116832</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.853845350486</v>
+        <v>9386.263935439787</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28835.39919992094</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26673.30262901817</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28835.39919992094</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26673.30262901817</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28835.39919992094</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26673.30262901817</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28835.39919992094</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26673.30262901817</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1058.45234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>135.9602344995041</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13353.0396394537</v>
+        <v>346.7127090767025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19280.01512841276</v>
+        <v>777.8494427183999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19769.780047248</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6189.307227245999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5914.908238816838</v>
+        <v>125.3734990721661</v>
       </c>
       <c r="O2" t="n">
-        <v>3628.023524551822</v>
+        <v>183.6538381306478</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5509.197086876458</v>
+        <v>101.9170951152791</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>362.9066076366151</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42163.71916364003</v>
+        <v>1313.42977404479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32768.08478625982</v>
+        <v>2227.614065720369</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97840.49618645621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25068.1401224518</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18733.51942116832</v>
+        <v>337.5357088227005</v>
       </c>
       <c r="O2" t="n">
-        <v>9386.263935439787</v>
+        <v>363.7792159379853</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>234.6760704606383</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>714.3598950717846</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>2767.358511932531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>4377.552022949434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28835.39919992094</v>
+        <v>735.9252380194357</v>
       </c>
       <c r="O2" t="n">
-        <v>26673.30262901817</v>
+        <v>664.3811208296214</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>234.6760704606383</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>714.3598950717846</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>2767.358511932531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>4377.552022949434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28835.39919992094</v>
+        <v>735.9252380194357</v>
       </c>
       <c r="O2" t="n">
-        <v>26673.30262901817</v>
+        <v>684.6978974915725</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>292.8744314431498</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>714.3598950717846</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>2767.358511932531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>4377.552022949434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28835.39919992094</v>
+        <v>735.9252380194357</v>
       </c>
       <c r="O2" t="n">
-        <v>26673.30262901817</v>
+        <v>701.6984641353358</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>292.8744314431498</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>714.3598950717846</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>2767.358511932531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>182.1583285348912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>4377.552022949434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28835.39919992094</v>
+        <v>735.9252380194357</v>
       </c>
       <c r="O2" t="n">
-        <v>26673.30262901817</v>
+        <v>701.6984641353358</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.26655561871</v>
+        <v>1052.266555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.24731657534</v>
+        <v>13056.24731657494</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>6217.591780158</v>
       </c>
       <c r="N2" t="n">
-        <v>5912.552854505395</v>
+        <v>5912.552854505456</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.879697557355</v>
+        <v>3616.879697557346</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.617767628883</v>
+        <v>5696.617767628727</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41672.65814761933</v>
+        <v>41672.65814761944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>25113.26834048615</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.89280438323</v>
+        <v>18601.8928043832</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.853845350486</v>
+        <v>9187.853845350495</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28740.57766953725</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26250.66103583671</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28740.57766953725</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26250.66103583671</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28740.57766953725</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26250.66103583671</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908289</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620930309</v>
+        <v>507.6495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953767</v>
+        <v>28740.57766953725</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583673</v>
+        <v>26250.66103583671</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>135.9602344995041</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7127090767025</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>777.8494427183999</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>125.3734990721661</v>
+        <v>7071.74531360843</v>
       </c>
       <c r="O2" t="n">
-        <v>183.6538381306478</v>
+        <v>6993.890772562212</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101.9170951152791</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362.9066076366151</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1313.42977404479</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2227.614065720369</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>337.5357088227005</v>
+        <v>9024.733389685653</v>
       </c>
       <c r="O2" t="n">
-        <v>363.7792159379853</v>
+        <v>9724.258249348202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>234.6760704606383</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>735.9252380194357</v>
+        <v>13034.3101291405</v>
       </c>
       <c r="O2" t="n">
-        <v>664.3811208296214</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>234.6760704606383</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>735.9252380194357</v>
+        <v>13151.8694977663</v>
       </c>
       <c r="O2" t="n">
-        <v>684.6978974915725</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292.8744314431498</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>735.9252380194357</v>
+        <v>13601.08685191924</v>
       </c>
       <c r="O2" t="n">
-        <v>701.6984641353358</v>
+        <v>14937.1305943757</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292.8744314431498</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>735.9252380194357</v>
+        <v>13601.08685191924</v>
       </c>
       <c r="O2" t="n">
-        <v>701.6984641353358</v>
+        <v>14937.1305943757</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.266555618711</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>290.0628494009815</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.24731657494</v>
+        <v>29049.07128553875</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>14940.02916486277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50998.86069102</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>11228.70813999</v>
       </c>
       <c r="N2" t="n">
-        <v>5912.552854505456</v>
+        <v>7234.065805482215</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.879697557346</v>
+        <v>6709.289187938176</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.617767628727</v>
+        <v>219.6192975232897</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>3803.736742006061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41672.65814761944</v>
+        <v>45497.54827019678</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366783</v>
+        <v>31289.53350734562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333453</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>17372.009741075</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.8928043832</v>
+        <v>9195.86092813068</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.853845350495</v>
+        <v>7881.440454293026</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>2152.642197777731</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>5760.108587711311</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>57498.34500251195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>48287.37981995431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23337.84238116651</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953725</v>
+        <v>13671.28110402295</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>13096.12162563002</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>2152.642197777731</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>5760.108587711311</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>57498.34500251195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>48287.37981995431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23337.84238116651</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953725</v>
+        <v>13671.28110402295</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>13096.12162563002</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>2152.642197777731</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>5760.108587711311</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>57498.34500251195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>48287.37981995431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23337.84238116651</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953725</v>
+        <v>13671.28110402295</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>13096.12162563002</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>2152.642197777731</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>5760.108587711311</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>57498.34500251195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712662028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>48287.37981995431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23337.84238116651</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.57766953725</v>
+        <v>13671.28110402295</v>
       </c>
       <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>13096.12162563002</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.266555618711</v>
+        <v>4320.152408422566</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>67073.85894978809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.24731657494</v>
+        <v>9854.158125184696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>2095.097471083596</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5912.552854505456</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3616.879697557346</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.617767628727</v>
+        <v>12052.92431868095</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>211846.0690091267</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41672.65814761944</v>
+        <v>16465.14516325167</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366783</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.37837333453</v>
+        <v>8051.265832755007</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18601.8928043832</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9187.853845350495</v>
+        <v>5738.328092052151</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>32209.11485284988</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>311065.2825043933</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>17206.54902263747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>11593.7641766469</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>15552.84988003742</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28740.57766953725</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>9655.305390072994</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -946,10 +888,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>32209.11485284988</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>311065.2825043933</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>17206.54902263747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>11593.7641766469</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +921,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>15552.84988003742</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28740.57766953725</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>9655.305390072994</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,10 +1015,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>32209.11485284988</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>311065.2825043933</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>17206.54902263747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>11593.7641766469</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1048,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>15552.84988003742</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28740.57766953725</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>9655.305390072994</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1232,10 +1142,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>32209.11485284988</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934856</v>
+        <v>311065.2825043933</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.7443185628</v>
+        <v>17206.54902263747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>11593.7641766469</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863461</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>15552.84988003742</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28740.57766953725</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26250.66103583671</v>
+        <v>9655.305390072994</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3938.434305843788</v>
       </c>
       <c r="B2" t="n">
-        <v>135.9602344995041</v>
+        <v>66480.85919970302</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7127090767025</v>
+        <v>10685.63911138124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>2534.277928792158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>777.8494427183999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2055.967807069945</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>125.3734990721661</v>
-      </c>
-      <c r="O2" t="n">
-        <v>183.6538381306478</v>
+        <v>1995.762462679755</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101.9170951152791</v>
+        <v>11607.78587874054</v>
       </c>
       <c r="B2" t="n">
-        <v>362.9066076366151</v>
+        <v>213442.9430617537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1313.42977404479</v>
+        <v>16490.08959283756</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2227.614065720369</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7955.449403504414</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>337.5357088227005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363.7792159379853</v>
+        <v>5738.328092052149</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>234.6760704606383</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15945.39415954659</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>735.9252380194357</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664.3811208296214</v>
+        <v>9655.305390073241</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -946,10 +888,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>234.6760704606383</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +921,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15945.39415954659</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>735.9252380194357</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684.6978974915725</v>
+        <v>9655.305390073241</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,10 +1015,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292.8744314431498</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1048,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15945.39415954659</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>735.9252380194357</v>
-      </c>
-      <c r="O2" t="n">
-        <v>701.6984641353358</v>
+        <v>9655.305390073241</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1232,10 +1142,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292.8744314431498</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>714.3598950717846</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2767.358511932531</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.1583285348912</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4377.552022949434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15945.39415954659</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>735.9252380194357</v>
-      </c>
-      <c r="O2" t="n">
-        <v>701.6984641353358</v>
+        <v>9655.305390073241</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,29 +517,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4320.152408422566</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>67073.85894978809</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34571.91593949074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9854.158125184696</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>866.090703915558</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2534.277928792126</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,9 +550,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2095.097471083596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>218547.9617955566</v>
+      </c>
+      <c r="O2" t="n">
         <v>1995.76246267978</v>
       </c>
     </row>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12052.92431868095</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>211846.0690091267</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>148350.0577205477</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16465.14516325167</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>866.090703915558</v>
       </c>
       <c r="G2" t="n">
-        <v>7410.946080941625</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941624</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8051.265832755007</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5738.328092052151</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>233137.6946312535</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5738.328092052148</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32209.11485284988</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>311065.2825043933</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255308.0505297226</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17206.54902263747</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14355.12988362158</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.7641766469</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15552.84988003742</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390072994</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234698.4240172835</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.305390073228</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -888,28 +946,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32209.11485284988</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>311065.2825043933</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255308.0505297226</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17206.54902263747</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14355.12988362158</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.7641766469</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -921,10 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15552.84988003742</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390072994</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234925.0693451238</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.305390073228</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1015,28 +1089,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32209.11485284988</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>311065.2825043933</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255308.0505297226</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17206.54902263747</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14355.12988362158</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.7641766469</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1048,10 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15552.84988003742</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390072994</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234925.0693451238</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.305390073228</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1142,28 +1232,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32209.11485284988</v>
+        <v>189.0080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>311065.2825043933</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255308.0505297226</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17206.54902263747</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14355.12988362158</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.7641766469</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1175,10 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15552.84988003742</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390072994</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234925.0693451238</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.305390073228</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>91.95165582021582</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34571.91593949074</v>
+        <v>23009.42264245811</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>866.090703915558</v>
+        <v>6112.702378435232</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.277928792126</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>218547.9617955566</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.76246267978</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>91.95165582021582</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>148350.0577205477</v>
+        <v>159668.2027850324</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>866.090703915558</v>
+        <v>13919.05730726036</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941624</v>
+        <v>2808.850240832828</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>233137.6946312535</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052148</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>10738.62644036619</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255308.0505297226</v>
+        <v>269318.8455209903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14355.12988362158</v>
+        <v>16277.62795939798</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>9387.76619166767</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>234698.4240172835</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073228</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>10738.62644036619</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255308.0505297226</v>
+        <v>269318.8455209903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14355.12988362158</v>
+        <v>16277.62795939798</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>9387.76619166767</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>234925.0693451238</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073228</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>10738.62644036619</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255308.0505297226</v>
+        <v>269318.8455209903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14355.12988362158</v>
+        <v>16277.62795939798</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>9387.76619166767</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>234925.0693451238</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073228</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>189.0080070514287</v>
+        <v>10738.62644036619</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255308.0505297226</v>
+        <v>269318.8455209903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14355.12988362158</v>
+        <v>16277.62795939798</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>9387.76619166767</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5118.891412691406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>234925.0693451238</v>
+        <v>64816.31425926043</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073228</v>
+        <v>11262.6921551051</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3938.434305843788</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66480.85919970302</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22248.96157305166</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10685.63911138124</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6560.172332187693</v>
       </c>
       <c r="G2" t="n">
-        <v>2534.277928792158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2055.967807069945</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1995.762462679755</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11607.78587874054</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>213442.9430617537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>157484.2051604276</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16490.08959283756</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14956.45358288589</v>
       </c>
       <c r="G2" t="n">
-        <v>7410.946080941627</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2898.172057777255</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7955.449403504414</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5738.328092052149</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15945.39415954659</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390073241</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -888,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -921,10 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15945.39415954659</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390073241</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1015,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1048,10 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15945.39415954659</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390073241</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1142,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1175,10 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15945.39415954659</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.305390073241</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65015.417959154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11058.94484697387</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91.95165582021582</v>
+        <v>3907.839467348947</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23009.42264245811</v>
+        <v>20958.30797648665</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>6112.702378435232</v>
+        <v>9576.917678077516</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>2496.065024248546</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91.95165582021582</v>
+        <v>7687.479820995307</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159668.2027850324</v>
+        <v>165981.5305391587</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>13919.05730726036</v>
+        <v>16456.82794983845</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2808.850240832828</v>
+        <v>7410.946080941624</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>8668.310653174596</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>5738.328092052151</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10738.62644036619</v>
+        <v>27023.31630724029</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>269318.8455209903</v>
+        <v>265245.2802138127</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16277.62795939798</v>
+        <v>17293.04376523062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9387.76619166767</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>13966.33088578177</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10738.62644036619</v>
+        <v>27023.31630724029</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>269318.8455209903</v>
+        <v>265245.2802138127</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16277.62795939798</v>
+        <v>17293.04376523062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9387.76619166767</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>13966.33088578177</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10738.62644036619</v>
+        <v>27023.31630724029</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>269318.8455209903</v>
+        <v>265245.2802138127</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16277.62795939798</v>
+        <v>17293.04376523062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9387.76619166767</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>13966.33088578177</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10738.62644036619</v>
+        <v>27023.31630724029</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>269318.8455209903</v>
+        <v>265245.2802138127</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16277.62795939798</v>
+        <v>17293.04376523062</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9387.76619166767</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
-        <v>5118.891412691406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>64816.31425926043</v>
+        <v>13966.33088578177</v>
       </c>
       <c r="O2" t="n">
-        <v>11262.6921551051</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3434.230276161567</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22248.96157305166</v>
+        <v>20296.61332037171</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>6560.172332187693</v>
+        <v>10458.14894156114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.27792879215</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>2656.447352476748</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>1995.762462679761</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>6149.122203392265</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>157484.2051604276</v>
+        <v>167556.5189553056</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14956.45358288589</v>
+        <v>16483.26488774296</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2898.172057777255</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>9255.230896213068</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>5738.32809205215</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>14463.39312432183</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>9655.305390073167</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>14463.39312432183</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>9655.305390073167</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>14463.39312432183</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>9655.305390073167</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65015.417959154</v>
+        <v>14463.39312432183</v>
       </c>
       <c r="O2" t="n">
-        <v>11058.94484697387</v>
+        <v>9655.305390073167</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3907.839467348947</v>
+        <v>3903.181680257918</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20958.30797648665</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>9576.917678077516</v>
+        <v>9578.721511093998</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2496.065024248546</v>
+        <v>2483.088451418223</v>
       </c>
       <c r="O2" t="n">
         <v>1995.76246267978</v>
@@ -660,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7687.479820995307</v>
+        <v>7750.604434501321</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>165981.5305391587</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16456.82794983845</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941624</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8668.310653174596</v>
+        <v>8657.602454901124</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052151</v>
+        <v>5738.328092052153</v>
       </c>
     </row>
   </sheetData>
@@ -803,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27023.31630724029</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265245.2802138127</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.04376523062</v>
+        <v>17293.09788022114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>11593.76417664667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13966.33088578177</v>
+        <v>13965.19781313026</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073227</v>
+        <v>9655.305390073201</v>
       </c>
     </row>
   </sheetData>
@@ -946,28 +946,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27023.31630724029</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265245.2802138127</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.04376523062</v>
+        <v>17293.09788022114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>11593.76417664667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13966.33088578177</v>
+        <v>13965.19781313026</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073227</v>
+        <v>9655.305390073201</v>
       </c>
     </row>
   </sheetData>
@@ -1089,28 +1089,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27023.31630724029</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265245.2802138127</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.04376523062</v>
+        <v>17293.09788022114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>11593.76417664667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13966.33088578177</v>
+        <v>13965.19781313026</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073227</v>
+        <v>9655.305390073201</v>
       </c>
     </row>
   </sheetData>
@@ -1232,28 +1232,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27023.31630724029</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265245.2802138127</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.04376523062</v>
+        <v>17293.09788022114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664664</v>
+        <v>11593.76417664667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13966.33088578177</v>
+        <v>13965.19781313026</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073227</v>
+        <v>9655.305390073201</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3434.230276161567</v>
+        <v>3457.63287660481</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20296.61332037171</v>
+        <v>47351.22198540746</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10458.14894156114</v>
+        <v>10465.28316756398</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.27792879215</v>
+        <v>2534.277928792128</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2656.447352476748</v>
+        <v>2614.921347713389</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.762462679761</v>
+        <v>1995.762462679778</v>
       </c>
     </row>
   </sheetData>
@@ -660,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6149.122203392265</v>
+        <v>6286.174668797132</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>167556.5189553056</v>
+        <v>194612.4813176465</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.26488774296</v>
+        <v>16483.47891452305</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941627</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9255.230896213068</v>
+        <v>9192.115719585745</v>
       </c>
       <c r="O2" t="n">
         <v>5738.32809205215</v>
@@ -803,22 +803,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14463.39312432183</v>
+        <v>14458.1522545052</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073167</v>
+        <v>9655.305390073163</v>
       </c>
     </row>
   </sheetData>
@@ -946,22 +946,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14463.39312432183</v>
+        <v>14458.1522545052</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073167</v>
+        <v>9655.305390073163</v>
       </c>
     </row>
   </sheetData>
@@ -1089,22 +1089,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14463.39312432183</v>
+        <v>14458.1522545052</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073167</v>
+        <v>9655.305390073163</v>
       </c>
     </row>
   </sheetData>
@@ -1232,22 +1232,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14463.39312432183</v>
+        <v>14458.1522545052</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073167</v>
+        <v>9655.305390073163</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290.0628494009815</v>
+        <v>277.8902526399997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29049.07128553875</v>
+        <v>29092.72506141524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14940.02916486277</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50998.86069102</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11228.70813999</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7234.065805482215</v>
+        <v>7270.39941619107</v>
       </c>
       <c r="O2" t="n">
-        <v>6709.289187938176</v>
+        <v>6890.515200515631</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219.6192975232897</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3803.736742006061</v>
+        <v>5522.228665642542</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45497.54827019678</v>
+        <v>56035.50691766649</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31289.53350734562</v>
+        <v>37516.80488821431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72537.0054129926</v>
       </c>
       <c r="M2" t="n">
-        <v>17372.009741075</v>
+        <v>21815.58876574551</v>
       </c>
       <c r="N2" t="n">
-        <v>9195.86092813068</v>
+        <v>10913.44862569963</v>
       </c>
       <c r="O2" t="n">
-        <v>7881.440454293026</v>
+        <v>9427.219998659948</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642197777731</v>
+        <v>2266.48797166071</v>
       </c>
       <c r="B2" t="n">
-        <v>5760.108587711311</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34500251195</v>
+        <v>67081.2042405315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48287.37981995431</v>
+        <v>53800.46711853385</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72537.0054129926</v>
       </c>
       <c r="M2" t="n">
-        <v>23337.84238116651</v>
+        <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28110402295</v>
+        <v>15939.31202052396</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.12162563002</v>
+        <v>15294.41615167074</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642197777731</v>
+        <v>2266.48797166071</v>
       </c>
       <c r="B2" t="n">
-        <v>5760.108587711311</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34500251195</v>
+        <v>67081.2042405315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48287.37981995431</v>
+        <v>53800.46711853385</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72537.0054129926</v>
       </c>
       <c r="M2" t="n">
-        <v>23337.84238116651</v>
+        <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28110402295</v>
+        <v>15939.31202052396</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.12162563002</v>
+        <v>15294.41615167074</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642197777731</v>
+        <v>2266.48797166071</v>
       </c>
       <c r="B2" t="n">
-        <v>5760.108587711311</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34500251195</v>
+        <v>67081.2042405315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48287.37981995431</v>
+        <v>53800.46711853385</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72537.0054129926</v>
       </c>
       <c r="M2" t="n">
-        <v>23337.84238116651</v>
+        <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28110402295</v>
+        <v>15939.31202052396</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.12162563002</v>
+        <v>15294.41615167074</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642197777731</v>
+        <v>2266.48797166071</v>
       </c>
       <c r="B2" t="n">
-        <v>5760.108587711311</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34500251195</v>
+        <v>67081.2042405315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662028</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48287.37981995431</v>
+        <v>53800.46711853385</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72537.0054129926</v>
       </c>
       <c r="M2" t="n">
-        <v>23337.84238116651</v>
+        <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28110402295</v>
+        <v>15939.31202052396</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.12162563002</v>
+        <v>15294.41615167074</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.74531360843</v>
+        <v>7155.07579047334</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.890772562212</v>
+        <v>6980.325566461758</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9024.733389685653</v>
+        <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.258249348202</v>
+        <v>12062.16651258332</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13034.3101291405</v>
+        <v>15130.68721665935</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13151.8694977663</v>
+        <v>15235.09591287046</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.08685191924</v>
+        <v>15770.60709744437</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.1305943757</v>
+        <v>17095.62460801082</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.08685191924</v>
+        <v>15770.60709744437</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.1305943757</v>
+        <v>17095.62460801082</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2483.088451418223</v>
+        <v>2483.088451418227</v>
       </c>
       <c r="O2" t="n">
         <v>1995.76246267978</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8657.602454901124</v>
+        <v>8657.602454901111</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052153</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005455</v>
+        <v>27024.51331005587</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186319</v>
+        <v>292299.7571186316</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022114</v>
+        <v>17293.09788021953</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664667</v>
+        <v>11593.76417664702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781313026</v>
+        <v>13965.19781312981</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073201</v>
+        <v>9655.305390072877</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005455</v>
+        <v>27024.51331005587</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186319</v>
+        <v>292299.7571186316</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022114</v>
+        <v>17293.09788021953</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664667</v>
+        <v>11593.76417664702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781313026</v>
+        <v>13965.19781312981</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073201</v>
+        <v>9655.305390072877</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005455</v>
+        <v>27024.51331005587</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186319</v>
+        <v>292299.7571186316</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022114</v>
+        <v>17293.09788021953</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664667</v>
+        <v>11593.76417664702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781313026</v>
+        <v>13965.19781312981</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073201</v>
+        <v>9655.305390072877</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005455</v>
+        <v>27024.51331005587</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186319</v>
+        <v>292299.7571186316</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022114</v>
+        <v>17293.09788021953</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664667</v>
+        <v>11593.76417664702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781313026</v>
+        <v>13965.19781312981</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073201</v>
+        <v>9655.305390072877</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3457.63287660481</v>
+        <v>3457.632876604806</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47351.22198540746</v>
+        <v>47346.75218859861</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10465.28316756398</v>
+        <v>10467.2020657225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.277928792128</v>
+        <v>2534.27792879215</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2614.921347713389</v>
+        <v>2582.596006757865</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.762462679778</v>
+        <v>1995.762462679761</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6286.174668797132</v>
+        <v>6269.192575771305</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194612.4813176465</v>
+        <v>194663.6768644083</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.47891452305</v>
+        <v>16483.5364814678</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941625</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9192.115719585745</v>
+        <v>9726.93699846752</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.32809205215</v>
+        <v>5738.328092052151</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14458.1522545052</v>
+        <v>14671.40489783598</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073163</v>
+        <v>9655.305390072852</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14458.1522545052</v>
+        <v>14671.40489783598</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073163</v>
+        <v>9655.305390072852</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14458.1522545052</v>
+        <v>14671.40489783598</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073163</v>
+        <v>9655.305390072852</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14458.1522545052</v>
+        <v>14671.40489783598</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073163</v>
+        <v>9655.305390072852</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3457.632876604806</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47346.75218859861</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10467.2020657225</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.27792879215</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2582.596006757865</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.762462679761</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6269.192575771305</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194663.6768644083</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.5364814678</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941627</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9726.93699846752</v>
+        <v>7543.193583625169</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052151</v>
+        <v>6257.586732772244</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14671.40489783598</v>
+        <v>12888.04225687751</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072852</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14671.40489783598</v>
+        <v>14045.89200932069</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072852</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14671.40489783598</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072852</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14671.40489783598</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072852</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3903.181680257918</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>9578.721511093998</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2483.088451418227</v>
+        <v>2483.088451418224</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.76246267978</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7750.604434501321</v>
+        <v>7750.60443450132</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8657.602454901111</v>
+        <v>8657.602454901011</v>
       </c>
       <c r="O2" t="n">
         <v>5738.328092052152</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005587</v>
+        <v>27024.51331005652</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186316</v>
+        <v>292299.7571186314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788021953</v>
+        <v>17293.09788021874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664702</v>
+        <v>11593.76417664669</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312981</v>
+        <v>13965.19781312962</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072877</v>
+        <v>9655.305390073183</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005587</v>
+        <v>27024.51331005652</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186316</v>
+        <v>292299.7571186314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788021953</v>
+        <v>17293.09788021874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664702</v>
+        <v>11593.76417664669</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312981</v>
+        <v>13965.19781312962</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072877</v>
+        <v>9655.305390073183</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005587</v>
+        <v>27024.51331005652</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186316</v>
+        <v>292299.7571186314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788021953</v>
+        <v>17293.09788021874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664702</v>
+        <v>11593.76417664669</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312981</v>
+        <v>13965.19781312962</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072877</v>
+        <v>9655.305390073183</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331005587</v>
+        <v>27024.51331005652</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186316</v>
+        <v>292299.7571186314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788021953</v>
+        <v>17293.09788021874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664702</v>
+        <v>11593.76417664669</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312981</v>
+        <v>13965.19781312962</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072877</v>
+        <v>9655.305390073183</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -556,7 +556,7 @@
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7270.39941619107</v>
+        <v>7270.399416191073</v>
       </c>
       <c r="O2" t="n">
         <v>6890.515200515631</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37516.80488821431</v>
+        <v>37516.80488821432</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>10913.44862569963</v>
       </c>
       <c r="O2" t="n">
-        <v>9427.219998659948</v>
+        <v>9427.219998659941</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.48797166071</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7059.768887134545</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53800.46711853385</v>
+        <v>53800.46711853374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052396</v>
+        <v>15939.31202052392</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.41615167074</v>
+        <v>15294.41615167084</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.48797166071</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7059.768887134545</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53800.46711853385</v>
+        <v>53800.46711853374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052396</v>
+        <v>15939.31202052392</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.41615167074</v>
+        <v>15294.41615167084</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.48797166071</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7059.768887134545</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53800.46711853385</v>
+        <v>53800.46711853374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052396</v>
+        <v>15939.31202052392</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.41615167074</v>
+        <v>15294.41615167084</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.48797166071</v>
+        <v>2266.487971660762</v>
       </c>
       <c r="B2" t="n">
         <v>7059.768887134545</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53800.46711853385</v>
+        <v>53800.46711853374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>27679.0502989715</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31202052396</v>
+        <v>15939.31202052392</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.41615167074</v>
+        <v>15294.41615167084</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_fix_cost.xlsx
+++ b/results/[1_reference]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.07579047334</v>
+        <v>7155.075790473336</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.325566461758</v>
+        <v>6980.325566461754</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>12062.16651258332</v>
+        <v>12079.40905079305</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.68721665935</v>
+        <v>15117.91059331085</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15235.09591287046</v>
+        <v>15225.0345013318</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60709744437</v>
+        <v>15769.76205278203</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62460801082</v>
+        <v>17096.52013936021</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60709744437</v>
+        <v>15769.76205278203</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62460801082</v>
+        <v>17096.52013936021</v>
       </c>
     </row>
   </sheetData>
